--- a/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
+++ b/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\ccs\BCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB3F35D-7F66-4C00-89AD-AA6C0182CF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4853780-9413-4EE5-B529-41F3C3791EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BCS-BCS" sheetId="4" r:id="rId2"/>
-    <sheet name="BCS-DoSfCS" sheetId="6" r:id="rId3"/>
+    <sheet name="Calculations" sheetId="7" r:id="rId2"/>
+    <sheet name="BCS-BCS" sheetId="4" r:id="rId3"/>
+    <sheet name="BCS-DoSfCS" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">About!$A$11</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Source:</t>
   </si>
@@ -118,6 +119,117 @@
   </si>
   <si>
     <t>of 3 years for the electricity sector.</t>
+  </si>
+  <si>
+    <t>45Q phase-in period</t>
+  </si>
+  <si>
+    <t>45Q phase-out period</t>
+  </si>
+  <si>
+    <t>The potentials below use the "High emissions" values from the Rhodium figure above and are presented as MMT of capture capacity.</t>
+  </si>
+  <si>
+    <t>agriculture and forestry 01T03</t>
+  </si>
+  <si>
+    <t>coal mining 05</t>
+  </si>
+  <si>
+    <t>oil and gas extraction 06</t>
+  </si>
+  <si>
+    <t>other mining and quarrying 07T08</t>
+  </si>
+  <si>
+    <t>food beverage and tobacco 10T12</t>
+  </si>
+  <si>
+    <t>textiles apparel and leather 13T15</t>
+  </si>
+  <si>
+    <t>wood products 16</t>
+  </si>
+  <si>
+    <t>pulp paper and printing 17T18</t>
+  </si>
+  <si>
+    <t>refined petroleum and coke 19 - energy</t>
+  </si>
+  <si>
+    <t>*mapped to energy-related emissions rather than process emissions, since CCS equipment is installed on crackers</t>
+  </si>
+  <si>
+    <t>refined petroleum and coke 19 - process</t>
+  </si>
+  <si>
+    <t>*mapped to process emissions</t>
+  </si>
+  <si>
+    <t>chemicals 20</t>
+  </si>
+  <si>
+    <t>*ammonia not counted because we assume this industry is decarbonized through the hydrogen PTC</t>
+  </si>
+  <si>
+    <t>rubber and plastic products 22</t>
+  </si>
+  <si>
+    <t>glass and glass products 231</t>
+  </si>
+  <si>
+    <t>cement and other nonmetallic minerals 239</t>
+  </si>
+  <si>
+    <t>iron and steel 241</t>
+  </si>
+  <si>
+    <t>other metals 242</t>
+  </si>
+  <si>
+    <t>metal products except machinery and vehicles 25</t>
+  </si>
+  <si>
+    <t>computers and electronics 26</t>
+  </si>
+  <si>
+    <t>appliances and electrical equipment 27</t>
+  </si>
+  <si>
+    <t>other machinery 28</t>
+  </si>
+  <si>
+    <t>road vehicles 29</t>
+  </si>
+  <si>
+    <t>nonroad vehicles 30</t>
+  </si>
+  <si>
+    <t>other manufacturing 31T33</t>
+  </si>
+  <si>
+    <t>energy pipelines and gas processing 352T353</t>
+  </si>
+  <si>
+    <t>water and waste 36T39</t>
+  </si>
+  <si>
+    <t>construction 41T43</t>
+  </si>
+  <si>
+    <t>*We use the data below for calculating the fraction of CCS potential achieved by industry. We do not subscript 45Q tax credits by sub-industry, so we must</t>
+  </si>
+  <si>
+    <t>choose a representative value for determining how to apply a duration multiplier. Since most of the incremental CCS comes online between 2030-2035, we use that timeline.</t>
+  </si>
+  <si>
+    <t>The electricity sector calculations properly apply the tax credit duration depending on when CCS capacity comes online.</t>
+  </si>
+  <si>
+    <t>However, the industry sector does not have stock tracking for CCS equipment. Therefore, we adjust the BAU subsidy</t>
+  </si>
+  <si>
+    <t>values for industry only to reflect the duration multiplier.</t>
   </si>
 </sst>
 </file>
@@ -173,7 +285,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -183,6 +295,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -550,25 +665,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="41.81640625" customWidth="1"/>
+    <col min="2" max="2" width="55.81640625" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,22 +691,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>0.73</v>
       </c>
@@ -602,7 +717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -610,13 +725,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -624,14 +739,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -642,6 +772,551 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1086F14D-0ABA-4CBC-A6C8-8AA6F7BA1ED0}">
+  <dimension ref="A1:AE35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:AE3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B1" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1" s="7">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1" s="7">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1" s="7">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1" s="7">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1" s="7">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1" s="7">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1" s="7">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1" s="7">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1" s="7">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1" s="7">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1" s="7">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1" s="7">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1" s="7">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="M2">
+        <f>L2+1/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:P2" si="0">M2+1/5</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <f>IFERROR(IF(A3=1,1,INDEX($B$2:$AE$2,MATCH((B1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>IFERROR(IF(B3=1,1,INDEX($B$2:$AE$2,MATCH((C1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>IFERROR(IF(C3=1,1,INDEX($B$2:$AE$2,MATCH((D1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>IFERROR(IF(D3=1,1,INDEX($B$2:$AE$2,MATCH((E1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>IFERROR(IF(E3=1,1,INDEX($B$2:$AE$2,MATCH((F1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>IFERROR(IF(F3=1,1,INDEX($B$2:$AE$2,MATCH((G1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>IFERROR(IF(G3=1,1,INDEX($B$2:$AE$2,MATCH((H1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>IFERROR(IF(H3=1,1,INDEX($B$2:$AE$2,MATCH((I1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>IFERROR(IF(I3=1,1,INDEX($B$2:$AE$2,MATCH((J1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>IFERROR(IF(J3=1,1,INDEX($B$2:$AE$2,MATCH((K1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>IFERROR(IF(K3=1,1,INDEX($B$2:$AE$2,MATCH((L1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>IFERROR(IF(L3=1,1,INDEX($B$2:$AE$2,MATCH((M1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>IFERROR(IF(M3=1,1,INDEX($B$2:$AE$2,MATCH((N1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>IFERROR(IF(N3=1,1,INDEX($B$2:$AE$2,MATCH((O1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>IFERROR(IF(O3=1,1,INDEX($B$2:$AE$2,MATCH((P1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>IFERROR(IF(P3=1,1,INDEX($B$2:$AE$2,MATCH((Q1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>IFERROR(IF(Q3=1,1,INDEX($B$2:$AE$2,MATCH((R1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>IFERROR(IF(R3=1,1,INDEX($B$2:$AE$2,MATCH((S1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>IFERROR(IF(S3=1,1,INDEX($B$2:$AE$2,MATCH((T1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>IFERROR(IF(T3=1,1,INDEX($B$2:$AE$2,MATCH((U1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>IFERROR(IF(U3=1,1,INDEX($B$2:$AE$2,MATCH((V1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>IFERROR(IF(V3=1,1,INDEX($B$2:$AE$2,MATCH((W1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>IFERROR(IF(W3=1,1,INDEX($B$2:$AE$2,MATCH((X1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="Y3">
+        <f>IFERROR(IF(X3=1,1,INDEX($B$2:$AE$2,MATCH((Y1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Z3">
+        <f>IFERROR(IF(Y3=1,1,INDEX($B$2:$AE$2,MATCH((Z1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AA3">
+        <f>IFERROR(IF(Z3=1,1,INDEX($B$2:$AE$2,MATCH((AA1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AB3">
+        <f>IFERROR(IF(AA3=1,1,INDEX($B$2:$AE$2,MATCH((AB1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <f>IFERROR(IF(AB3=1,1,INDEX($B$2:$AE$2,MATCH((AC1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <f>IFERROR(IF(AC3=1,1,INDEX($B$2:$AE$2,MATCH((AD1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <f>IFERROR(IF(AD3=1,1,INDEX($B$2:$AE$2,MATCH((AE1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>2022</v>
+      </c>
+      <c r="C9">
+        <v>2030</v>
+      </c>
+      <c r="D9">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -649,16 +1324,16 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D2" sqref="D2:AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -753,7 +1428,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -763,105 +1438,120 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
-      </c>
-      <c r="E2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
-      </c>
-      <c r="F2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
-      </c>
-      <c r="G2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
-      </c>
-      <c r="H2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
-      </c>
-      <c r="I2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
-      </c>
-      <c r="J2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
-      </c>
-      <c r="K2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
-      </c>
-      <c r="L2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
-      </c>
-      <c r="M2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
-      </c>
-      <c r="N2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
-      </c>
-      <c r="O2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
-      </c>
-      <c r="P2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!D3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="E2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!E3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="F2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!F3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="G2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!G3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="H2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!H3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="I2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!I3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="J2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!J3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="K2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!K3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="L2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!L3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="M2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!M3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="N2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!N3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="O2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!O3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="P2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!P3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!Q3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="R2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!R3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="S2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!S3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="T2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!T3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="U2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!U3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="V2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!V3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="W2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!W3)</f>
+        <v>62.05</v>
+      </c>
+      <c r="X2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!X3)</f>
+        <v>49.64</v>
+      </c>
+      <c r="Y2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!Y3)</f>
+        <v>37.229999999999997</v>
+      </c>
+      <c r="Z2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!Z3)</f>
+        <v>24.819999999999993</v>
+      </c>
+      <c r="AA2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!AA3)</f>
+        <v>12.409999999999997</v>
+      </c>
+      <c r="AB2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!AB3)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!AC3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!AD3)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="8">
+        <f>About!$B$11*About!$A$9*(1-Calculations!AE3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -871,7 +1561,7 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3">
         <f>About!$B$11*About!$A$9</f>
         <v>62.05</v>
       </c>
@@ -971,7 +1661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5698252-CD29-4D86-9D7F-2214C5598602}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -982,9 +1672,9 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1769,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>

--- a/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
+++ b/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\ccs\BCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4853780-9413-4EE5-B529-41F3C3791EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7519D7CE-E98F-413E-A6DF-5C9601EE62D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -285,20 +285,18 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -667,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
@@ -707,7 +705,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>0.73</v>
       </c>
       <c r="B9" t="s">
@@ -721,7 +719,7 @@
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>85</v>
       </c>
     </row>
@@ -729,7 +727,7 @@
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -785,91 +783,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B1" s="7">
+      <c r="B1" s="6">
         <v>2021</v>
       </c>
       <c r="C1">
         <v>2022</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="6">
         <v>2023</v>
       </c>
       <c r="E1">
         <v>2024</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="6">
         <v>2025</v>
       </c>
       <c r="G1">
         <v>2026</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="6">
         <v>2027</v>
       </c>
       <c r="I1">
         <v>2028</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="6">
         <v>2029</v>
       </c>
       <c r="K1">
         <v>2030</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="6">
         <v>2031</v>
       </c>
       <c r="M1">
         <v>2032</v>
       </c>
-      <c r="N1" s="7">
+      <c r="N1" s="6">
         <v>2033</v>
       </c>
       <c r="O1">
         <v>2034</v>
       </c>
-      <c r="P1" s="7">
+      <c r="P1" s="6">
         <v>2035</v>
       </c>
       <c r="Q1">
         <v>2036</v>
       </c>
-      <c r="R1" s="7">
+      <c r="R1" s="6">
         <v>2037</v>
       </c>
       <c r="S1">
         <v>2038</v>
       </c>
-      <c r="T1" s="7">
+      <c r="T1" s="6">
         <v>2039</v>
       </c>
       <c r="U1">
         <v>2040</v>
       </c>
-      <c r="V1" s="7">
+      <c r="V1" s="6">
         <v>2041</v>
       </c>
       <c r="W1">
         <v>2042</v>
       </c>
-      <c r="X1" s="7">
+      <c r="X1" s="6">
         <v>2043</v>
       </c>
       <c r="Y1">
         <v>2044</v>
       </c>
-      <c r="Z1" s="7">
+      <c r="Z1" s="6">
         <v>2045</v>
       </c>
       <c r="AA1">
         <v>2046</v>
       </c>
-      <c r="AB1" s="7">
+      <c r="AB1" s="6">
         <v>2047</v>
       </c>
       <c r="AC1">
         <v>2048</v>
       </c>
-      <c r="AD1" s="7">
+      <c r="AD1" s="6">
         <v>2049</v>
       </c>
       <c r="AE1">
@@ -1323,8 +1321,8 @@
   </sheetPr>
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:AE2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1432,122 +1430,107 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!D3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="E2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!E3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="F2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!F3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="G2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!G3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="H2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!H3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="I2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!I3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="J2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!J3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="K2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!K3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="L2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!L3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="M2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!M3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="N2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!N3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="O2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!O3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="P2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!P3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="Q2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!Q3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="R2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!R3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="S2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!S3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="T2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!T3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="U2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!U3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="V2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!V3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="W2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!W3)</f>
-        <v>62.05</v>
-      </c>
-      <c r="X2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!X3)</f>
-        <v>49.64</v>
-      </c>
-      <c r="Y2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!Y3)</f>
-        <v>37.229999999999997</v>
-      </c>
-      <c r="Z2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!Z3)</f>
-        <v>24.819999999999993</v>
-      </c>
-      <c r="AA2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!AA3)</f>
-        <v>12.409999999999997</v>
-      </c>
-      <c r="AB2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!AB3)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!AC3)</f>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!AD3)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="8">
-        <f>About!$B$11*About!$A$9*(1-Calculations!AE3)</f>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="E2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="F2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="G2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="H2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="I2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="J2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="K2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="L2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="M2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="N2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="O2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="P2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
         <v>0</v>
       </c>
     </row>
@@ -1555,104 +1538,122 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!D3)</f>
         <v>62.05</v>
       </c>
       <c r="E3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!E3)</f>
         <v>62.05</v>
       </c>
       <c r="F3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!F3)</f>
         <v>62.05</v>
       </c>
       <c r="G3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!G3)</f>
         <v>62.05</v>
       </c>
       <c r="H3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!H3)</f>
         <v>62.05</v>
       </c>
       <c r="I3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!I3)</f>
         <v>62.05</v>
       </c>
       <c r="J3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!J3)</f>
         <v>62.05</v>
       </c>
       <c r="K3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!K3)</f>
         <v>62.05</v>
       </c>
       <c r="L3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!L3)</f>
         <v>62.05</v>
       </c>
       <c r="M3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!M3)</f>
         <v>62.05</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!N3)</f>
+        <v>62.05</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!O3)</f>
+        <v>62.05</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!P3)</f>
+        <v>62.05</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!Q3)</f>
+        <v>62.05</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!R3)</f>
+        <v>62.05</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!S3)</f>
+        <v>62.05</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!T3)</f>
+        <v>62.05</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!U3)</f>
+        <v>62.05</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!V3)</f>
+        <v>62.05</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!W3)</f>
+        <v>62.05</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!X3)</f>
+        <v>49.64</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!Y3)</f>
+        <v>37.229999999999997</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!Z3)</f>
+        <v>24.819999999999993</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!AA3)</f>
+        <v>12.409999999999997</v>
       </c>
       <c r="AB3">
+        <f>About!$B$11*About!$A$9*(1-Calculations!AB3)</f>
         <v>0</v>
       </c>
       <c r="AC3">
+        <f>About!$B$11*About!$A$9*(1-Calculations!AC3)</f>
         <v>0</v>
       </c>
       <c r="AD3">
+        <f>About!$B$11*About!$A$9*(1-Calculations!AD3)</f>
         <v>0</v>
       </c>
       <c r="AE3">
+        <f>About!$B$11*About!$A$9*(1-Calculations!AE3)</f>
         <v>0</v>
       </c>
     </row>
